--- a/data/Open Budget city budget codes.xlsx
+++ b/data/Open Budget city budget codes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f4a93aa42a454b8/Рабочий стол/Bank/ANDRII/openbudget/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrii/Documents/R files/_My projects/Open budget/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03895C38-6922-4DAB-B16C-652CE7BE9CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99593D0-557B-E442-889C-0940867779F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{B4FF39ED-7787-4E85-8816-C3A2031432B7}"/>
+    <workbookView xWindow="9520" yWindow="760" windowWidth="20720" windowHeight="17400" xr2:uid="{B4FF39ED-7787-4E85-8816-C3A2031432B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -213,7 +213,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,13 +221,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -239,14 +260,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="40% - Accent5" xfId="1" builtinId="47"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -561,226 +584,229 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1A67A06-DE02-4647-8534-1A0C99BD28F2}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="63" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.90625" customWidth="1"/>
-    <col min="2" max="2" width="14.26953125" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B14" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B15" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B16" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>56</v>
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C19">
+    <sortCondition ref="A2:A19"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>